--- a/CBS/Analysis/Norms_5yr_bins.xlsx
+++ b/CBS/Analysis/Norms_5yr_bins.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorwild/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\CBS\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25515" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="By Age and Gender" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>gender_1</t>
   </si>
@@ -177,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -222,6 +219,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -490,50 +490,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D27"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" customWidth="1"/>
-    <col min="17" max="17" width="23.6640625" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" customWidth="1"/>
-    <col min="20" max="20" width="23.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.6640625" customWidth="1"/>
-    <col min="22" max="22" width="28.6640625" customWidth="1"/>
-    <col min="23" max="23" width="27.6640625" customWidth="1"/>
-    <col min="24" max="24" width="19.6640625" customWidth="1"/>
-    <col min="25" max="25" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="23.6640625" customWidth="1"/>
-    <col min="27" max="27" width="22.6640625" customWidth="1"/>
-    <col min="28" max="28" width="15.6640625" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" customWidth="1"/>
-    <col min="31" max="31" width="13.6640625" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" customWidth="1"/>
+    <col min="22" max="22" width="28.7109375" customWidth="1"/>
+    <col min="23" max="23" width="27.7109375" customWidth="1"/>
+    <col min="24" max="24" width="19.7109375" customWidth="1"/>
+    <col min="25" max="25" width="18.7109375" customWidth="1"/>
+    <col min="26" max="26" width="23.7109375" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1.1008505278214813</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0.99297089703289709</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0.99979089031739088</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>0.99187684926813957</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>1.0006951980574885</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>1.0179087839930745</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0.98286215304536118</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>1.019572975175276</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>0.97417228242945508</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0.96128168130886738</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>0.93104127504411527</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>1.0118486296806084</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>1.060654084223299</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>1.008273403298158</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1.002832233640091</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0.99507083968188492</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>0.99828997266006736</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>1.0226126179401251</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>0.98435136366123777</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0.96042165290165604</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0.96491357576203751</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>0.98535370452679583</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>0.91123785917830658</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>0.96569214461534558</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0.99427338360956052</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -3258,6 +3258,330 @@
       </c>
       <c r="AG27">
         <v>0.88647871361902775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>88</v>
+      </c>
+      <c r="D31">
+        <v>4.8977272727272725</v>
+      </c>
+      <c r="E31">
+        <v>0.93513503514748786</v>
+      </c>
+      <c r="F31">
+        <v>13.863636363636363</v>
+      </c>
+      <c r="G31">
+        <v>5.124163667520393</v>
+      </c>
+      <c r="H31">
+        <v>17.386363636363637</v>
+      </c>
+      <c r="I31">
+        <v>11.898451380140152</v>
+      </c>
+      <c r="J31">
+        <v>13.670454545454545</v>
+      </c>
+      <c r="K31">
+        <v>2.5358196702859193</v>
+      </c>
+      <c r="L31">
+        <v>6.5454545454545459</v>
+      </c>
+      <c r="M31">
+        <v>1.3382875565875336</v>
+      </c>
+      <c r="N31">
+        <v>61.329545454545453</v>
+      </c>
+      <c r="O31">
+        <v>29.212153662989213</v>
+      </c>
+      <c r="P31">
+        <v>99.443181818181813</v>
+      </c>
+      <c r="Q31">
+        <v>23.874122938476813</v>
+      </c>
+      <c r="R31">
+        <v>6.75</v>
+      </c>
+      <c r="S31">
+        <v>1.6968530710782199</v>
+      </c>
+      <c r="T31">
+        <v>14.443181818181818</v>
+      </c>
+      <c r="U31">
+        <v>7.6831775552744146</v>
+      </c>
+      <c r="V31">
+        <v>4.3295454545454541</v>
+      </c>
+      <c r="W31">
+        <v>1.0252175649009336</v>
+      </c>
+      <c r="X31">
+        <v>34.295454545454547</v>
+      </c>
+      <c r="Y31">
+        <v>20.69547070827312</v>
+      </c>
+      <c r="Z31">
+        <v>6.3068181818181817</v>
+      </c>
+      <c r="AA31">
+        <v>1.8026669549504204</v>
+      </c>
+      <c r="AB31">
+        <v>-1.1779660921244217</v>
+      </c>
+      <c r="AC31">
+        <v>0.97464603505467473</v>
+      </c>
+      <c r="AD31">
+        <v>-1.0195175439495445</v>
+      </c>
+      <c r="AE31">
+        <v>0.80956039188317086</v>
+      </c>
+      <c r="AF31">
+        <v>-0.32608810771569802</v>
+      </c>
+      <c r="AG31">
+        <v>1.060654084223299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>254</v>
+      </c>
+      <c r="D32">
+        <v>4.9133858267716537</v>
+      </c>
+      <c r="E32">
+        <v>0.93270503831274443</v>
+      </c>
+      <c r="F32">
+        <v>13.799212598425196</v>
+      </c>
+      <c r="G32">
+        <v>4.0950948400604421</v>
+      </c>
+      <c r="H32">
+        <v>18.228346456692915</v>
+      </c>
+      <c r="I32">
+        <v>10.583146402125475</v>
+      </c>
+      <c r="J32">
+        <v>13.153543307086615</v>
+      </c>
+      <c r="K32">
+        <v>2.2272227082598239</v>
+      </c>
+      <c r="L32">
+        <v>6.5984251968503935</v>
+      </c>
+      <c r="M32">
+        <v>1.1745647079985209</v>
+      </c>
+      <c r="N32">
+        <v>63.562992125984252</v>
+      </c>
+      <c r="O32">
+        <v>27.978852271153031</v>
+      </c>
+      <c r="P32">
+        <v>92.086614173228341</v>
+      </c>
+      <c r="Q32">
+        <v>25.645045479796412</v>
+      </c>
+      <c r="R32">
+        <v>6.7913385826771657</v>
+      </c>
+      <c r="S32">
+        <v>1.4689688040796682</v>
+      </c>
+      <c r="T32">
+        <v>14.464566929133857</v>
+      </c>
+      <c r="U32">
+        <v>7.3509379634263734</v>
+      </c>
+      <c r="V32">
+        <v>4.1929133858267713</v>
+      </c>
+      <c r="W32">
+        <v>1.0050214716493548</v>
+      </c>
+      <c r="X32">
+        <v>30.5748031496063</v>
+      </c>
+      <c r="Y32">
+        <v>19.013005611216862</v>
+      </c>
+      <c r="Z32">
+        <v>6.3346456692913389</v>
+      </c>
+      <c r="AA32">
+        <v>1.9766973674918358</v>
+      </c>
+      <c r="AB32">
+        <v>-1.1602678079483986</v>
+      </c>
+      <c r="AC32">
+        <v>0.91568284813292367</v>
+      </c>
+      <c r="AD32">
+        <v>-1.1728427652927365</v>
+      </c>
+      <c r="AE32">
+        <v>0.81444671587615358</v>
+      </c>
+      <c r="AF32">
+        <v>-0.29942563058722554</v>
+      </c>
+      <c r="AG32">
+        <v>0.88647871361902775</v>
+      </c>
+    </row>
+    <row r="33" spans="4:33">
+      <c r="D33">
+        <f>AVERAGE(D31:D32)</f>
+        <v>4.9055565497494626</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33:AG33" si="0">AVERAGE(E31:E32)</f>
+        <v>0.93392003673011614</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>13.83142448103078</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>4.609629253790418</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>17.807355046528276</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>11.240798891132814</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>13.411998926270581</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>2.3815211892728714</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>6.5719398711524697</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>1.2564261322930272</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>62.446268790264853</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>28.59550296707112</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>95.76489799570507</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>24.759584209136612</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>6.7706692913385833</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>1.5829109375789441</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>14.453874373657838</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>7.5170577593503936</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="0"/>
+        <v>4.2612294201861127</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="0"/>
+        <v>1.0151195182751442</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="0"/>
+        <v>32.435128847530422</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="0"/>
+        <v>19.854238159744991</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="0"/>
+        <v>6.3207319255547603</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>1.8896821612211281</v>
+      </c>
+      <c r="AB33">
+        <f>AVERAGE(AB31:AB32)</f>
+        <v>-1.1691169500364103</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="0"/>
+        <v>0.9451644415937992</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="0"/>
+        <v>-1.0961801546211405</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="0"/>
+        <v>0.81200355387966217</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="0"/>
+        <v>-0.31275686915146178</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="0"/>
+        <v>0.97356639892116337</v>
       </c>
     </row>
   </sheetData>

--- a/CBS/Analysis/Norms_5yr_bins.xlsx
+++ b/CBS/Analysis/Norms_5yr_bins.xlsx
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF33" sqref="AF33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3462,7 +3462,11 @@
         <v>0.88647871361902775</v>
       </c>
     </row>
-    <row r="33" spans="4:33">
+    <row r="33" spans="3:33">
+      <c r="C33">
+        <f>SUM(C31:C32)</f>
+        <v>342</v>
+      </c>
       <c r="D33">
         <f>AVERAGE(D31:D32)</f>
         <v>4.9055565497494626</v>
